--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reps\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>VERSION</t>
   </si>
@@ -149,12 +149,6 @@
     <t>HOND</t>
   </si>
   <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>CIVIC</t>
-  </si>
-  <si>
     <t>CIVIC LX</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>RESTRAINTS_DISCOUNT</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -227,13 +218,13 @@
     <t>S</t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
-    <t>AAAKN3DD&amp;E</t>
+    <t>HONDA_UPDATED</t>
+  </si>
+  <si>
+    <t>19XFB5F5&amp;C</t>
   </si>
 </sst>
 </file>
@@ -595,12 +586,13 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
@@ -624,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -708,33 +700,33 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -746,30 +738,30 @@
         <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H2" s="3">
         <v>20000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" s="3">
         <v>4</v>
@@ -783,22 +775,22 @@
         <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V2" s="3">
         <v>1</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="3">
         <v>44</v>
@@ -807,19 +799,19 @@
         <v>44</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG2">
         <v>20000101</v>
@@ -831,12 +823,12 @@
         <v>38</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -848,10 +840,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -920,33 +912,33 @@
         <v>38</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG3" s="4">
         <v>20010101</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -955,10 +947,10 @@
         <v>2018</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
@@ -1030,16 +1022,16 @@
         <v>38</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="4">
         <v>20020101</v>
@@ -1051,12 +1043,12 @@
         <v>38</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -1068,10 +1060,10 @@
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1140,16 +1132,16 @@
         <v>38</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG5" s="4">
         <v>20030101</v>
@@ -1161,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/Refreshable_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reps\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gw3eraj\projects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>VERSION</t>
   </si>
@@ -107,9 +107,6 @@
     <t>ALTFUEL</t>
   </si>
   <si>
-    <t>SYMBOL_2000</t>
-  </si>
-  <si>
     <t>MDX ADVANCE</t>
   </si>
   <si>
@@ -161,21 +158,6 @@
     <t>CPE</t>
   </si>
   <si>
-    <t>1.7L L4</t>
-  </si>
-  <si>
-    <t>000E</t>
-  </si>
-  <si>
-    <t>FRONT AIRBAGS</t>
-  </si>
-  <si>
-    <t>NOT AVAILABLE</t>
-  </si>
-  <si>
-    <t>P-PASSIVE SENTRY KEY</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -203,35 +185,92 @@
     <t>RESTRAINTS_DISCOUNT</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>invalidVin</t>
   </si>
   <si>
     <t>secondValid</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
-    <t>HONDA_UPDATED</t>
-  </si>
-  <si>
     <t>19XFB5F5&amp;C</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>HONDA MOTOR</t>
+  </si>
+  <si>
+    <t>1.8L L4 COMPRESSED NATURAL GAS</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>FRNT/HEAD/SIDE/REAR SIDE AIRBAGS</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>BI047</t>
+  </si>
+  <si>
+    <t>PD043</t>
+  </si>
+  <si>
+    <t>UM061</t>
+  </si>
+  <si>
+    <t>MP061</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>MP002</t>
+  </si>
+  <si>
+    <t>BI003</t>
+  </si>
+  <si>
+    <t>PD003</t>
+  </si>
+  <si>
+    <t>UM003</t>
+  </si>
+  <si>
+    <t>MP003</t>
+  </si>
+  <si>
+    <t>BI004</t>
+  </si>
+  <si>
+    <t>PD004</t>
+  </si>
+  <si>
+    <t>UM004</t>
+  </si>
+  <si>
+    <t>MP004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,13 +281,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,16 +323,19 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -583,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +630,9 @@
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.109375" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" customWidth="1"/>
@@ -616,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -700,494 +737,491 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="3">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="AG2">
-        <v>20000101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>50</v>
+        <v>20180319</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>214</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="2">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="2">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3">
-        <v>53080</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3">
-        <v>6</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>214</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="3">
-        <v>2</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="3">
-        <v>2</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="3">
-        <v>39</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG3" s="4">
+      <c r="AC3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="3">
         <v>20010101</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>50</v>
+      <c r="AH3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>214</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3">
-        <v>53080</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3">
-        <v>6</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>214</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="3">
-        <v>2</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="3">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>20020101</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>50</v>
+      <c r="AC4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4">
+        <v>20180719</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="2">
+        <v>53080</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>214</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="2">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3">
-        <v>53080</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="3">
-        <v>6</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>214</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AA5" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="3">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>20030101</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="AC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5">
+        <v>20180919</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJhZDU3ZDYxOC03ZWI5LTQ4MzYtOTY1OS05MmUxYzk3ZDViMmIiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjBkZjlhOWJkLWZlYjEtNGIwMS05MjIyLTRlMWUzMWIxNDk4NCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+RU5UXGd3M2VyYWo8L1VzZXJOYW1lPjxEYXRlVGltZT4xLzMxLzIwMTkgNDowMzo1OCBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPkNvbmZpZGVudGlhbDwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="ad57d618-7eb9-4836-9659-92e1c97d5b2b" origin="userSelected">
+  <element uid="0df9a9bd-feb1-4b01-9222-4e1e31b14984" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6193B50-C564-46BC-BCD8-9C75E66D23E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CACBC58C-FD58-4A25-8FBA-645CB1212DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>